--- a/biology/Médecine/Zorka_Domic/Zorka_Domic.xlsx
+++ b/biology/Médecine/Zorka_Domic/Zorka_Domic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zorka Domic est une psychiatre et psychanalyste français d'origine yougoslave.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zorka Domic fait ses études à la faculté de médecine de Moscou[1] puis obtient un CES de psychiatrie en France. Elle a également un diplôme d'anthropologie de l'École des hautes études en sciences sociales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zorka Domic fait ses études à la faculté de médecine de Moscou puis obtient un CES de psychiatrie en France. Elle a également un diplôme d'anthropologie de l'École des hautes études en sciences sociales.
 Elle a exercé comme psychiatre au Centre Marmottan et au Centre Françoise Minkowska. Spécialiste de la toxicomanie, elle travaille actuellement au Centre Horizons - Centre de soins, d'accompagnement et de prévention en addictologie (Paris).
 Elle appartient au comité éditorial de la revue de psychanalyse Chimères dans laquelle elle a publié plusieurs articles. Elle est l'auteure d'ouvrages en lien avec l'addictologie et la psychanalyse.
 </t>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moscou entre-temps. Psychanalyse soviétique, Paris, Syros alternatives, coll. « Regards Mosaïques », 1992
 L'État cocaïne. Science et politique, de la feuille à la poudre, Paris, PUF, coll. « Science, histoire et société », 1992
